--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3108,10 +3120,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3155,28 +3167,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3201,28 +3213,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3525,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3572,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3618,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3860,10 +3872,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3907,28 +3919,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3953,28 +3965,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4120,10 +4132,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4167,28 +4179,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4213,28 +4225,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4438,10 +4450,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4485,28 +4497,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4531,28 +4543,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4640,10 +4652,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4687,28 +4699,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4733,28 +4745,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5132,10 +5144,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5179,28 +5191,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5225,28 +5237,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
